--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tb-lab---dst-result-vs.xlsx
+++ b/ValueSet-tb-lab---dst-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
